--- a/Questions/English/Phrases.xlsx
+++ b/Questions/English/Phrases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>18/01/21</t>
+  </si>
+  <si>
+    <t>אני חייב לך</t>
+  </si>
+  <si>
+    <t>i owe you</t>
+  </si>
+  <si>
+    <t>19/01/21</t>
   </si>
 </sst>
 </file>
@@ -517,7 +526,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="G4" pane="bottomLeft" sqref="G4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
@@ -596,9 +605,25 @@
       </c>
     </row>
     <row customHeight="1" ht="27.65" r="4" spans="1:7">
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="9" t="n"/>
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="9" t="n"/>
+      <c r="G4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row customHeight="1" ht="27.65" r="5" spans="1:7">
       <c r="D5" s="6" t="n"/>

--- a/Questions/English/Phrases.xlsx
+++ b/Questions/English/Phrases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>19/01/21</t>
+  </si>
+  <si>
+    <t>אלה כאן ואלה שם</t>
+  </si>
+  <si>
+    <t>these are here and those are there</t>
+  </si>
+  <si>
+    <t>20/01/21</t>
   </si>
 </sst>
 </file>
@@ -526,7 +535,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
+      <selection activeCell="G6" pane="bottomLeft" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
@@ -626,9 +635,25 @@
       </c>
     </row>
     <row customHeight="1" ht="27.65" r="5" spans="1:7">
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="9" t="n"/>
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="9" t="n"/>
+      <c r="G5" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row customHeight="1" ht="27.65" r="6" spans="1:7">
       <c r="D6" s="6" t="n"/>

--- a/Questions/English/Phrases.xlsx
+++ b/Questions/English/Phrases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,75 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>אני אצליח</t>
-  </si>
-  <si>
-    <t>i will succeed</t>
-  </si>
-  <si>
-    <t>17/01/21</t>
-  </si>
-  <si>
-    <t>להיות מסוגל</t>
-  </si>
-  <si>
-    <t>to be able to</t>
-  </si>
-  <si>
-    <t>18/01/21</t>
-  </si>
-  <si>
-    <t>אני חייב לך</t>
-  </si>
-  <si>
-    <t>i owe you</t>
-  </si>
-  <si>
-    <t>19/01/21</t>
-  </si>
-  <si>
-    <t>אלה כאן ואלה שם</t>
-  </si>
-  <si>
-    <t>these are here and those are there</t>
-  </si>
-  <si>
-    <t>20/01/21</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -216,51 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -533,141 +468,187 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="G6" pane="bottomLeft" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.08984375"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.7265625"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
+    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="2" spans="1:7">
+    <row r="2" ht="27.65" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>אני אצליח</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>i will succeed</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" s="11" t="s">
-        <v>10</v>
+      <c r="G2" s="11" t="inlineStr">
+        <is>
+          <t>17/01/21</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="3" spans="1:7">
+    <row r="3" ht="27.65" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>להיות מסוגל</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>to be able to</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" s="11" t="s">
-        <v>13</v>
+      <c r="G3" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="4" spans="1:7">
+    <row r="4" ht="27.65" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>15</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>אני חייב לך</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>i owe you</t>
+        </is>
       </c>
       <c r="F4" s="9" t="n"/>
-      <c r="G4" s="11" t="s">
-        <v>16</v>
+      <c r="G4" s="11" t="inlineStr">
+        <is>
+          <t>19/01/21</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="5" spans="1:7">
+    <row r="5" ht="27.65" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>אלה כאן ואלה שם</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>these are here and those are there</t>
+        </is>
       </c>
       <c r="F5" s="9" t="n"/>
-      <c r="G5" s="11" t="s">
-        <v>19</v>
+      <c r="G5" s="11" t="inlineStr">
+        <is>
+          <t>20/01/21</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="6" spans="1:7">
+    <row r="6" ht="27.65" customHeight="1">
       <c r="D6" s="6" t="n"/>
       <c r="E6" s="6" t="n"/>
       <c r="F6" s="6" t="n"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7">
       <c r="D7" s="6" t="n"/>
       <c r="E7" s="6" t="n"/>
       <c r="F7" s="6" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -679,7 +660,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -691,7 +672,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -702,7 +683,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Phrases.xlsx
+++ b/Questions/English/Phrases.xlsx
@@ -1,43 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3B1959-19D5-4C38-A93D-29F8A3041E7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>אני אצליח</t>
+  </si>
+  <si>
+    <t>i will succeed</t>
+  </si>
+  <si>
+    <t>17/01/21</t>
+  </si>
+  <si>
+    <t>להיות מסוגל</t>
+  </si>
+  <si>
+    <t>to be able to</t>
+  </si>
+  <si>
+    <t>18/01/21</t>
+  </si>
+  <si>
+    <t>אני חייב לך</t>
+  </si>
+  <si>
+    <t>i owe you</t>
+  </si>
+  <si>
+    <t>19/01/21</t>
+  </si>
+  <si>
+    <t>אלה כאן ואלה שם</t>
+  </si>
+  <si>
+    <t>these are here and those are there</t>
+  </si>
+  <si>
+    <t>20/01/21</t>
+  </si>
+  <si>
+    <t>plural form</t>
+  </si>
+  <si>
+    <t>צורת רבים</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -154,48 +231,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -461,194 +547,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
+    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="12" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" ht="27.65" customHeight="1">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>אני אצליח</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>i will succeed</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="11" t="inlineStr">
-        <is>
-          <t>17/01/21</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="27.65" customHeight="1">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>להיות מסוגל</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>to be able to</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="11" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" ht="27.65" customHeight="1">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>אני חייב לך</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>i owe you</t>
-        </is>
-      </c>
-      <c r="F4" s="9" t="n"/>
-      <c r="G4" s="11" t="inlineStr">
-        <is>
-          <t>19/01/21</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" ht="27.65" customHeight="1">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>אלה כאן ואלה שם</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>these are here and those are there</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="n"/>
-      <c r="G5" s="11" t="inlineStr">
-        <is>
-          <t>20/01/21</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" ht="27.65" customHeight="1">
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
-      <c r="F6" s="6" t="n"/>
+    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="11">
+        <v>44502</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="n"/>
-      <c r="F7" s="6" t="n"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -660,7 +712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -684,6 +736,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/English/Phrases.xlsx
+++ b/Questions/English/Phrases.xlsx
@@ -1,120 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3B1959-19D5-4C38-A93D-29F8A3041E7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>אני אצליח</t>
-  </si>
-  <si>
-    <t>i will succeed</t>
-  </si>
-  <si>
-    <t>17/01/21</t>
-  </si>
-  <si>
-    <t>להיות מסוגל</t>
-  </si>
-  <si>
-    <t>to be able to</t>
-  </si>
-  <si>
-    <t>18/01/21</t>
-  </si>
-  <si>
-    <t>אני חייב לך</t>
-  </si>
-  <si>
-    <t>i owe you</t>
-  </si>
-  <si>
-    <t>19/01/21</t>
-  </si>
-  <si>
-    <t>אלה כאן ואלה שם</t>
-  </si>
-  <si>
-    <t>these are here and those are there</t>
-  </si>
-  <si>
-    <t>20/01/21</t>
-  </si>
-  <si>
-    <t>plural form</t>
-  </si>
-  <si>
-    <t>צורת רבים</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -231,57 +154,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -547,7 +461,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
@@ -555,148 +473,200 @@
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="11" customWidth="1"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>אני אצליח</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>i will succeed</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="11" t="inlineStr">
+        <is>
+          <t>17/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>להיות מסוגל</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>to be able to</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="27.6" customHeight="1">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>אני חייב לך</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>i owe you</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="11" t="inlineStr">
+        <is>
+          <t>19/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="27.6" customHeight="1">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="B5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>אלה כאן ואלה שם</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>these are here and those are there</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="n"/>
+      <c r="G5" s="11" t="inlineStr">
+        <is>
+          <t>20/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="27.6" customHeight="1">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
+      <c r="B6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>צורת רבים</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>plural form</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="n"/>
+      <c r="G6" s="11" t="n">
+        <v>44502</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="11">
-        <v>44502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+    <row r="7">
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="n"/>
+      <c r="F7" s="6" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
@@ -736,6 +706,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Phrases.xlsx
+++ b/Questions/English/Phrases.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,22 +536,22 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,9 +588,9 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
@@ -549,9 +617,9 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
-        <v>2</v>
+        <v>198</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
@@ -578,9 +646,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
@@ -607,9 +675,9 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
@@ -636,9 +704,9 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
@@ -663,14 +731,10 @@
         <v>44502</v>
       </c>
     </row>
-    <row r="7">
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="n"/>
-      <c r="F7" s="6" t="n"/>
-    </row>
+    <row r="7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -682,7 +746,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -694,7 +758,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -705,7 +769,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Phrases.xlsx
+++ b/Questions/English/Phrases.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -536,22 +468,22 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -588,7 +520,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>197</v>
       </c>
@@ -617,7 +549,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>198</v>
       </c>
@@ -646,7 +578,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>199</v>
       </c>
@@ -675,7 +607,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>200</v>
       </c>
@@ -704,7 +636,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>201</v>
       </c>
@@ -734,7 +666,7 @@
     <row r="7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -746,7 +678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -758,7 +690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -769,7 +701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Phrases.xlsx
+++ b/Questions/English/Phrases.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,24 +534,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>197</v>
       </c>
@@ -549,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>198</v>
       </c>
@@ -578,7 +646,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>199</v>
       </c>
@@ -607,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>200</v>
       </c>
@@ -636,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>201</v>
       </c>
@@ -663,10 +731,9 @@
         <v>44502</v>
       </c>
     </row>
-    <row r="7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -678,7 +745,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -690,7 +757,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -701,7 +768,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Phrases.xlsx
+++ b/Questions/English/Phrases.xlsx
@@ -534,7 +534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -731,6 +731,7 @@
         <v>44502</v>
       </c>
     </row>
+    <row r="7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule priority="4" type="colorScale">

--- a/Questions/English/Phrases.xlsx
+++ b/Questions/English/Phrases.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,22 +536,22 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>197</v>
       </c>
@@ -549,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>198</v>
       </c>
@@ -578,7 +646,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>199</v>
       </c>
@@ -607,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>200</v>
       </c>
@@ -636,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>201</v>
       </c>
@@ -666,7 +734,7 @@
     <row r="7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -678,7 +746,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -690,7 +758,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -701,7 +769,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Phrases.xlsx
+++ b/Questions/English/Phrases.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,24 +466,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -588,7 +520,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>197</v>
       </c>
@@ -617,7 +549,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>198</v>
       </c>
@@ -646,7 +578,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>199</v>
       </c>
@@ -675,7 +607,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>200</v>
       </c>
@@ -704,7 +636,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>201</v>
       </c>
@@ -731,9 +663,10 @@
         <v>44502</v>
       </c>
     </row>
+    <row r="7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -745,7 +678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -757,7 +690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -768,7 +701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Phrases.xlsx
+++ b/Questions/English/Phrases.xlsx
@@ -196,6 +196,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/English/Phrases.xlsx
+++ b/Questions/English/Phrases.xlsx
@@ -196,74 +196,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/English/Phrases.xlsx
+++ b/Questions/English/Phrases.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,24 +534,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E4" pane="bottomLeft" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>197</v>
       </c>
@@ -549,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>198</v>
       </c>
@@ -568,7 +636,7 @@
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>to be able to</t>
+          <t>to be able</t>
         </is>
       </c>
       <c r="F3" s="6" t="n"/>
@@ -578,7 +646,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>199</v>
       </c>
@@ -607,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>200</v>
       </c>
@@ -636,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>201</v>
       </c>
@@ -663,10 +731,9 @@
         <v>44502</v>
       </c>
     </row>
-    <row r="7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -678,7 +745,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -690,7 +757,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -701,7 +768,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Phrases.xlsx
+++ b/Questions/English/Phrases.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,24 +466,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="E4" pane="bottomLeft" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -588,7 +520,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>197</v>
       </c>
@@ -617,7 +549,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>198</v>
       </c>
@@ -646,7 +578,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>199</v>
       </c>
@@ -675,7 +607,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>200</v>
       </c>
@@ -704,7 +636,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>201</v>
       </c>
@@ -731,9 +663,10 @@
         <v>44502</v>
       </c>
     </row>
+    <row r="7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -745,7 +678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -757,7 +690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -768,7 +701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Phrases.xlsx
+++ b/Questions/English/Phrases.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,24 +534,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E4" pane="bottomLeft" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>197</v>
       </c>
@@ -549,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>198</v>
       </c>
@@ -578,7 +646,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>199</v>
       </c>
@@ -607,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>200</v>
       </c>
@@ -636,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>201</v>
       </c>
@@ -663,10 +731,9 @@
         <v>44502</v>
       </c>
     </row>
-    <row r="7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -678,7 +745,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -690,7 +757,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -701,7 +768,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Phrases.xlsx
+++ b/Questions/English/Phrases.xlsx
@@ -466,11 +466,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -663,7 +663,35 @@
         <v>44502</v>
       </c>
     </row>
-    <row r="7"/>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>507</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>אתה יכול לעשות את זה</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>you can do it</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200519</t>
+        </is>
+      </c>
+    </row>
+    <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="4">

--- a/Questions/English/Phrases.xlsx
+++ b/Questions/English/Phrases.xlsx
@@ -466,11 +466,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -691,7 +691,91 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>547</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>את כל כך יפה</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>you are so beautiful</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>548</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>תספר לי על עצמך</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>tell me about yourself</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>549</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>הסיפור מספר</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>the story tells</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="11"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="4">

--- a/Questions/English/Phrases.xlsx
+++ b/Questions/English/Phrases.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,24 +534,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="1"/>
+      <selection activeCell="E25" pane="bottomLeft" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>197</v>
       </c>
@@ -549,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>198</v>
       </c>
@@ -578,7 +646,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>199</v>
       </c>
@@ -607,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>200</v>
       </c>
@@ -636,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>201</v>
       </c>
@@ -775,10 +843,401 @@
         </is>
       </c>
     </row>
-    <row r="11"/>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>556</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>אני אהיה טייס</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>I will be a pilot</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200523</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>557</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>נהייתי אבא</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>i became a father</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200523</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>558</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>בנים ובנות</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>boys and girls</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200523</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>559</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>סוף סוף הגעתי הביתה</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>i finally got home</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200523</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>560</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>אני יכול לעשות את זה</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>i can do it</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200523</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>561</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>זה אבא שלי</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>this is my father</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>200523</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>562</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>הפעם</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>this time</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>200523</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>563</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>זמן ההוא</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>that time</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>200523</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>564</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>מלך ישראל</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>king of israel</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>200523</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>566</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>ספר שלך</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>your book</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>200524</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>567</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>הספר הזה שלך</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>this book is yours</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>200524</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>568</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>בתוך הקווים</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>within the lines</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>200524</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>569</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>אני במשרד</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>i am in the office</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>200524</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>570</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>אני בפנים</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>i am in</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>200524</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -790,7 +1249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -802,7 +1261,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -813,7 +1272,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Phrases.xlsx
+++ b/Questions/English/Phrases.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EDC0B6-672E-484D-87C3-7C07F3E1B4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="104">
   <si>
     <t>Id</t>
   </si>
@@ -91,9 +97,6 @@
     <t>200519</t>
   </si>
   <si>
-    <t>את כל כך יפה</t>
-  </si>
-  <si>
     <t>you are so beautiful</t>
   </si>
   <si>
@@ -115,7 +118,7 @@
     <t>אני אהיה טייס</t>
   </si>
   <si>
-    <t>I will be a pilot</t>
+    <t>i will be a pilot</t>
   </si>
   <si>
     <t>200523</t>
@@ -275,35 +278,89 @@
   </si>
   <si>
     <t>jewish majority and arab minority</t>
+  </si>
+  <si>
+    <t>זה נגמר</t>
+  </si>
+  <si>
+    <t>it is over</t>
+  </si>
+  <si>
+    <t>200530</t>
+  </si>
+  <si>
+    <t>סוף סוף נגמר</t>
+  </si>
+  <si>
+    <t>finally over</t>
+  </si>
+  <si>
+    <t>אני זמין היום</t>
+  </si>
+  <si>
+    <t>i am available today</t>
+  </si>
+  <si>
+    <t>תהליך ארוך</t>
+  </si>
+  <si>
+    <t>long process</t>
+  </si>
+  <si>
+    <t>אתה כל כך יפה</t>
+  </si>
+  <si>
+    <t>הספר הזה וההוא</t>
+  </si>
+  <si>
+    <t>this and that book</t>
+  </si>
+  <si>
+    <t>הפעם; זמן ההוא</t>
+  </si>
+  <si>
+    <t>this time; that time</t>
+  </si>
+  <si>
+    <t>this flower is very beautiful</t>
+  </si>
+  <si>
+    <t>it is very beautiful</t>
+  </si>
+  <si>
+    <t>זה מאוד יפה</t>
+  </si>
+  <si>
+    <t>הפרח הזה מאוד יפה</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -417,51 +474,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -727,30 +793,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A19" ySplit="1"/>
-      <selection activeCell="D37" pane="bottomLeft" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="5" min="5" style="5" width="32.09765625"/>
-    <col customWidth="1" max="6" min="6" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.59765625"/>
+    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="32.09765625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,11 +835,11 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2" spans="1:7">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>197</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -789,16 +851,16 @@
       <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="n"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>198</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -810,16 +872,16 @@
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="n"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4" spans="1:7">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>199</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -831,16 +893,16 @@
       <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="n"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>200</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -852,16 +914,16 @@
       <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="9" t="n"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6" spans="1:7">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>201</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -873,16 +935,16 @@
       <c r="E6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="6" t="n"/>
-      <c r="G6" s="11" t="n">
+      <c r="F6" s="6"/>
+      <c r="G6" s="11">
         <v>44502</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>507</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
@@ -898,590 +960,717 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>547</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>548</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="n">
-        <v>548</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>549</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="n">
-        <v>549</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>556</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="n">
-        <v>556</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="G11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>557</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="n">
-        <v>557</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>558</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="n">
-        <v>558</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>559</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="n">
-        <v>559</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>560</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="n">
-        <v>560</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>561</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="n">
-        <v>561</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>562</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="n">
-        <v>562</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>563</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="n">
-        <v>563</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>564</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="n">
-        <v>564</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>566</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="n">
-        <v>566</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="G24" t="s">
         <v>52</v>
       </c>
-      <c r="G20" t="s">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>567</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="n">
-        <v>567</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>568</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="n">
-        <v>568</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>569</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="n">
-        <v>569</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>570</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="n">
-        <v>570</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>574</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="n">
-        <v>574</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="G29" t="s">
         <v>63</v>
       </c>
-      <c r="G25" t="s">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>575</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="n">
-        <v>575</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="G30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>576</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="n">
-        <v>576</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="G31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>577</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="n">
-        <v>577</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>578</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="n">
-        <v>578</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>579</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="n">
-        <v>579</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="G34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>580</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="n">
-        <v>580</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="G35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>581</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="n">
-        <v>581</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="G36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>582</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="n">
-        <v>582</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>583</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="n">
-        <v>583</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="G38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>584</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="n">
-        <v>584</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="G39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>585</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="n">
-        <v>585</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="G40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>592</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7"/>
+      <c r="E41" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>593</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>594</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>595</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1493,7 +1682,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1505,7 +1694,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1516,7 +1705,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>